--- a/Discharge/RatingCurves/Stn1.xlsx
+++ b/Discharge/RatingCurves/Stn1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0982A297-6C91-42D4-B246-A9911A0D8B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ADE348-670B-43AB-813A-49D14334D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07CF2191-7EB6-48FB-98A6-089F23ACF832}"/>
+    <workbookView xWindow="480" yWindow="650" windowWidth="9380" windowHeight="8580" xr2:uid="{07CF2191-7EB6-48FB-98A6-089F23ACF832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Station 1</t>
   </si>
@@ -60,7 +60,10 @@
     <t>missing file</t>
   </si>
   <si>
-    <t>????</t>
+    <t>used 10:45</t>
+  </si>
+  <si>
+    <t>Used average of 10:00 and 11:30</t>
   </si>
 </sst>
 </file>
@@ -217,13 +220,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.927960000000001</c:v>
+                  <c:v>14.5799</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15.68731</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.314769999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.254270000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.10097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.93544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.716200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.391259999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>15.927960000000001</c:v>
@@ -1363,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF5C914-8BD5-4CA5-BE79-A5668D7FBF75}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1439,10 +1457,13 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D5" s="4">
-        <v>15.927960000000001</v>
+        <v>14.5799</v>
       </c>
       <c r="E5">
         <v>1.97E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1489,11 +1510,11 @@
       <c r="C8" s="2">
         <v>0.44791666666666669</v>
       </c>
+      <c r="D8" s="4">
+        <v>16.254270000000002</v>
+      </c>
       <c r="E8">
         <v>5.6959999999999997E-3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1504,13 +1525,13 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="C9" s="2">
-        <v>0.4375</v>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D9" s="4">
+        <v>15.10097</v>
       </c>
       <c r="E9">
         <v>4.8265000000000001E-3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1523,11 +1544,11 @@
       <c r="C10" s="2">
         <v>0.4375</v>
       </c>
+      <c r="D10" s="4">
+        <v>13.93544</v>
+      </c>
       <c r="E10">
         <v>9.0424000000000008E-3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1540,9 +1561,15 @@
       <c r="C11" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4">
+        <f>AVERAGE(13.45311,13.97929)</f>
+        <v>13.716200000000001</v>
+      </c>
       <c r="E11">
         <v>1.3180314E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1555,7 +1582,9 @@
       <c r="C12" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>17.391259999999999</v>
+      </c>
       <c r="E12">
         <v>1.6543019999999999E-2</v>
       </c>

--- a/Discharge/RatingCurves/Stn1.xlsx
+++ b/Discharge/RatingCurves/Stn1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ADE348-670B-43AB-813A-49D14334D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD22128E-942E-410F-A598-74374D665C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="650" windowWidth="9380" windowHeight="8580" xr2:uid="{07CF2191-7EB6-48FB-98A6-089F23ACF832}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14090" windowHeight="9530" xr2:uid="{07CF2191-7EB6-48FB-98A6-089F23ACF832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Station 1</t>
   </si>
@@ -63,7 +63,13 @@
     <t>used 10:45</t>
   </si>
   <si>
-    <t>Used average of 10:00 and 11:30</t>
+    <t>Used average of 10:00 and 11:45  (0.1345317 + 0.1417513)/2</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>used 12:00pm</t>
   </si>
 </sst>
 </file>
@@ -215,49 +221,52 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:f>Sheet1!$D$5:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>14.5799</c:v>
+                  <c:v>0.1457996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.68731</c:v>
+                  <c:v>0.1568737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.314769999999999</c:v>
+                  <c:v>0.14314830000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.254270000000002</c:v>
+                  <c:v>0.1625434</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.10097</c:v>
+                  <c:v>0.15101029999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.93544</c:v>
+                  <c:v>0.1393549</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.716200000000001</c:v>
+                  <c:v>0.1381415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.391259999999999</c:v>
+                  <c:v>0.17391319999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.927960000000001</c:v>
+                  <c:v>0.15928030000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.003419999999998</c:v>
+                  <c:v>0.14510619999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1483285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$14</c:f>
+              <c:f>Sheet1!$E$5:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.97E-3</c:v>
                 </c:pt>
@@ -287,6 +296,27 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.0229999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6430000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19495999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4860000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2427000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.222E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,15 +1409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF5C914-8BD5-4CA5-BE79-A5668D7FBF75}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1457,7 +1487,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D5" s="4">
-        <v>14.5799</v>
+        <v>0.1457996</v>
       </c>
       <c r="E5">
         <v>1.97E-3</v>
@@ -1477,7 +1507,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D6" s="4">
-        <v>15.68731</v>
+        <v>0.1568737</v>
       </c>
       <c r="E6">
         <v>5.104E-3</v>
@@ -1494,7 +1524,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D7" s="4">
-        <v>14.314769999999999</v>
+        <v>0.14314830000000001</v>
       </c>
       <c r="E7">
         <v>3.5645E-3</v>
@@ -1511,7 +1541,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D8" s="4">
-        <v>16.254270000000002</v>
+        <v>0.1625434</v>
       </c>
       <c r="E8">
         <v>5.6959999999999997E-3</v>
@@ -1528,7 +1558,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D9" s="4">
-        <v>15.10097</v>
+        <v>0.15101029999999999</v>
       </c>
       <c r="E9">
         <v>4.8265000000000001E-3</v>
@@ -1545,7 +1575,7 @@
         <v>0.4375</v>
       </c>
       <c r="D10" s="4">
-        <v>13.93544</v>
+        <v>0.1393549</v>
       </c>
       <c r="E10">
         <v>9.0424000000000008E-3</v>
@@ -1562,8 +1592,8 @@
         <v>0.4375</v>
       </c>
       <c r="D11" s="4">
-        <f>AVERAGE(13.45311,13.97929)</f>
-        <v>13.716200000000001</v>
+        <f>(0.1345317 + 0.1417513)/2</f>
+        <v>0.1381415</v>
       </c>
       <c r="E11">
         <v>1.3180314E-2</v>
@@ -1583,7 +1613,7 @@
         <v>0.5625</v>
       </c>
       <c r="D12" s="4">
-        <v>17.391259999999999</v>
+        <v>0.17391319999999999</v>
       </c>
       <c r="E12">
         <v>1.6543019999999999E-2</v>
@@ -1600,7 +1630,7 @@
         <v>0.4375</v>
       </c>
       <c r="D13" s="4">
-        <v>15.927960000000001</v>
+        <v>0.15928030000000001</v>
       </c>
       <c r="E13">
         <v>1.3445500000000001E-2</v>
@@ -1617,7 +1647,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D14" s="4">
-        <v>16.003419999999998</v>
+        <v>0.14510619999999999</v>
       </c>
       <c r="E14">
         <v>9.0229999999999998E-3</v>
@@ -1723,6 +1753,26 @@
       </c>
       <c r="F20" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44489</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.1483285</v>
+      </c>
+      <c r="E22">
+        <v>1.222E-3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Discharge/RatingCurves/Stn1.xlsx
+++ b/Discharge/RatingCurves/Stn1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD22128E-942E-410F-A598-74374D665C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AD22128E-942E-410F-A598-74374D665C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48566F50-F18D-B043-ABA5-F91B0EDEC79B}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14090" windowHeight="9530" xr2:uid="{07CF2191-7EB6-48FB-98A6-089F23ACF832}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{07CF2191-7EB6-48FB-98A6-089F23ACF832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -394,7 +394,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1601169039"/>
@@ -456,7 +456,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1601171119"/>
@@ -504,7 +504,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1075,16 +1075,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>125015</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123296</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>429286</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>437224</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88371</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66807</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1411,21 +1411,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF5C914-8BD5-4CA5-BE79-A5668D7FBF75}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44356</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44357</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44358</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44361</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>5.104E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44365</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>3.5645E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44372</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>5.6959999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44375</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>4.8265000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44382</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>9.0424000000000008E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44386</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44389</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>1.6543019999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44390</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>1.3445500000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44391</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>9.0229999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44393</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44396</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44397</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44400</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44403</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44404</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44489</v>
       </c>

--- a/Discharge/RatingCurves/Stn1.xlsx
+++ b/Discharge/RatingCurves/Stn1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AD22128E-942E-410F-A598-74374D665C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48566F50-F18D-B043-ABA5-F91B0EDEC79B}"/>
+  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{AD22128E-942E-410F-A598-74374D665C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110B388B-10DD-9743-90BD-8D4159B3FF8F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{07CF2191-7EB6-48FB-98A6-089F23ACF832}"/>
+    <workbookView xWindow="18080" yWindow="500" windowWidth="31420" windowHeight="20260" xr2:uid="{07CF2191-7EB6-48FB-98A6-089F23ACF832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>Station 1</t>
   </si>
@@ -71,12 +71,18 @@
   <si>
     <t>used 12:00pm</t>
   </si>
+  <si>
+    <t>Low_Q</t>
+  </si>
+  <si>
+    <t>High_Q</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +103,25 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -127,6 +152,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +546,2140 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$32:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.1457996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1568737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14314830000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1625434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1614931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1393549</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1381415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17391319999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15928030000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14510619999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14192460000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32541490000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32366600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19081529999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16417909999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1483285</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14526929999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15093899999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20982780000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23410729999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$32:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.97E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.104E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.565E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6959999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8269999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0419999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3180000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6542999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3446E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0229999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6430000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19495999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4860000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2427000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.222E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.1999999999999972E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1209999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6420000000000011E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B5F-3D46-B5CB-BF7F5D328941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488730879"/>
+        <c:axId val="492319215"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488730879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492319215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="492319215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488730879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$32:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.1457996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1568737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14314830000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1625434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1614931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1393549</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1381415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17391319999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15928030000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14510619999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14192460000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6763747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32541490000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32366600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19081529999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16417909999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1483285</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14526929999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15093899999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20982780000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23410729999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$32:$H$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1.97E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.104E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.565E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6959999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8269999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0419999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3180000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6542999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3446E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0229999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6430000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19495999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4860000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2427000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.222E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.1999999999999972E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1209999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6420000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3177-B747-9461-B46553CF3544}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="502247119"/>
+        <c:axId val="512212815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="502247119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512212815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512212815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502247119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$62:$A$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27100000000000013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27200000000000013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27300000000000013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27400000000000013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27600000000000013</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27610000000000012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27620000000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2763000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27640000000000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27650000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27660000000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27670000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27681000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27681100000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.276812</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.27681299999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.27681399999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27681499999999992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2768159999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.27681699999999987</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.27681799999999984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.27681899999999982</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27681999999999979</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.27682099999999976</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.27682199999999973</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.27682299999999971</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.27682399999999968</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.27682409999999968</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.27682419999999969</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.27682429999999969</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.27682439999999969</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2768244999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.2768245999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.2768246999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.2768247999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.27682599999999991</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.27686299999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.27691299999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.27770000000000006</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.27870000000000006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.27970000000000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.28070000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.28170000000000006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.28270000000000006</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.28370000000000006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.28660000000000008</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.29660000000000009</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.30660000000000009</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.3166000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32660000000000011</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.33660000000000012</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.34660000000000013</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.35660000000000014</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.36660000000000015</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.37660000000000016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.38660000000000017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$62:$B$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>6.363760000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8185000000000121E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6913600000000013E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9823400000000053E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0691440000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2818660000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5364000000000023E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8327460000000025E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1709040000000034E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5508740000000037E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9726560000000048E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4362500000000053E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.941656000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4888740000000101E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.545895460000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6033350400000096E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6611927400000065E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7194685600000098E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7781625000000084E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8372745600000079E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8432087626000049E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8491471464000076E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8550897114000076E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8610364576000049E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8669873850000024E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.8729424936000056E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.878901783400006E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8848652544000039E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8854618314660016E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8855214914722618E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8855811518966376E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.8856408127391372E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.885700473999758E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8857601356784942E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.8858197977753544E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B340-2E43-960C-6B521E571786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$62:$A$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27100000000000013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27200000000000013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27300000000000013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27400000000000013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27600000000000013</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27610000000000012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27620000000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2763000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27640000000000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27650000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27660000000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27670000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27681000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27681100000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.276812</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.27681299999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.27681399999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27681499999999992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2768159999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.27681699999999987</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.27681799999999984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.27681899999999982</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27681999999999979</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.27682099999999976</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.27682199999999973</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.27682299999999971</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.27682399999999968</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.27682409999999968</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.27682419999999969</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.27682429999999969</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.27682439999999969</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2768244999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.2768245999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.2768246999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.2768247999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.27682599999999991</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.27686299999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.27691299999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.27770000000000006</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.27870000000000006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.27970000000000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.28070000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.28170000000000006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.28270000000000006</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.28370000000000006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.28660000000000008</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.29660000000000009</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.30660000000000009</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.3166000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32660000000000011</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.33660000000000012</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.34660000000000013</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.35660000000000014</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.36660000000000015</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.37660000000000016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.38660000000000017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$62:$C$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="35">
+                  <c:v>4.8858555269400757E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.8858879691772751E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.8859204114399153E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.8859528537279935E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8859852960415125E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8860177383804722E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8860501807448699E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8860826231347097E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.886085867375093E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.8860891116157316E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.8860923558566229E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.8860956000977694E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.8860988443391713E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8861020885808258E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8861053328227357E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8861085770648995E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8861475079907173E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8873478961816784E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8889700977176785E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9145119288000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9469893368000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.979492184800003E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.012020472800003E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0445742008000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.0771533688000019E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.1097579768000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.2044552032000028E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.5326382432000033E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.863365283200004E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.1966363232000034E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5324513632000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.8708104032000034E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.2117134432000046E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.5551604832000047E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.9011515232000062E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.2496865632000066E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.6007656032000057E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B340-2E43-960C-6B521E571786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="550609583"/>
+        <c:axId val="548721375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="550609583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548721375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="548721375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550609583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1071,6 +3235,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1109,7 +4821,119 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>84366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>353784</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9073</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B30458C7-AB66-A412-6134-A99D84DE9692}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>197758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341D5A47-B009-9E3D-3DE1-D7986CA01A9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>566965</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>47172</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8DF55B-FCEE-CB70-E1E0-31F34EADFAC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1409,10 +5233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF5C914-8BD5-4CA5-BE79-A5668D7FBF75}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1687,7 +5511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44397</v>
       </c>
@@ -1704,7 +5528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44400</v>
       </c>
@@ -1721,7 +5545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44403</v>
       </c>
@@ -1738,7 +5562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44404</v>
       </c>
@@ -1755,7 +5579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44489</v>
       </c>
@@ -1773,6 +5597,1690 @@
       </c>
       <c r="F22" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>44874</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>44356</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <v>4.4460000000000003E-3</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
+        <v>4.4460000000000003E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>44357</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>7.1500000000000003E-4</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
+        <v>7.1500000000000003E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>44358</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.1457996</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1.97E-3</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.1457996</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1.97E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>44361</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.1568737</v>
+      </c>
+      <c r="E33" s="6">
+        <v>5.104E-3</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="9">
+        <v>0.1568737</v>
+      </c>
+      <c r="H33" s="6">
+        <v>5.104E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>44365</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.14314830000000001</v>
+      </c>
+      <c r="E34" s="6">
+        <v>3.565E-3</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="9">
+        <v>0.14314830000000001</v>
+      </c>
+      <c r="H34" s="6">
+        <v>3.565E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>44372</v>
+      </c>
+      <c r="B35" s="8">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.1625434</v>
+      </c>
+      <c r="E35" s="6">
+        <v>5.6959999999999997E-3</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="9">
+        <v>0.1625434</v>
+      </c>
+      <c r="H35" s="6">
+        <v>5.6959999999999997E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>44375</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.1614931</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4.8269999999999997E-3</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="9">
+        <v>0.1614931</v>
+      </c>
+      <c r="H36" s="6">
+        <v>4.8269999999999997E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>44382</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.1393549</v>
+      </c>
+      <c r="E37" s="6">
+        <v>9.0419999999999997E-3</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="9">
+        <v>0.1393549</v>
+      </c>
+      <c r="H37" s="6">
+        <v>9.0419999999999997E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>44386</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.1381415</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1.3180000000000001E-2</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.1381415</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1.3180000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.17391319999999999</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1.6542999999999999E-2</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="9">
+        <v>0.17391319999999999</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1.6542999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>44390</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.15928030000000001</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1.3446E-2</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="9">
+        <v>0.15928030000000001</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1.3446E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>44391</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.14510619999999999</v>
+      </c>
+      <c r="E41" s="6">
+        <v>9.0229999999999998E-3</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="9">
+        <v>0.14510619999999999</v>
+      </c>
+      <c r="H41" s="6">
+        <v>9.0229999999999998E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>44393</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.14192460000000001</v>
+      </c>
+      <c r="E42" s="6">
+        <v>4.6430000000000004E-3</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0.14192460000000001</v>
+      </c>
+      <c r="H42" s="6">
+        <v>4.6430000000000004E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>44396</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="6">
+        <v>0.19495999999999999</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0.6763747</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.19495999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>44397</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.32541490000000001</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.10002</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.32541490000000001</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.10002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>44400</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0.32366600000000001</v>
+      </c>
+      <c r="E45" s="6">
+        <v>6.4860000000000001E-2</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0.32366600000000001</v>
+      </c>
+      <c r="H45" s="6">
+        <v>6.4860000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>44403</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.19081529999999999</v>
+      </c>
+      <c r="E46" s="6">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0.19081529999999999</v>
+      </c>
+      <c r="H46" s="6">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>44404</v>
+      </c>
+      <c r="B47" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0.16417909999999999</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1.2427000000000001E-2</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0.16417909999999999</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1.2427000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>44489</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.1483285</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1.222E-3</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="9">
+        <v>0.1483285</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1.222E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.14526929999999999</v>
+      </c>
+      <c r="E51">
+        <v>6.1999999999999972E-3</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.14526929999999999</v>
+      </c>
+      <c r="H51">
+        <v>6.1999999999999972E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44719</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0.15093899999999999</v>
+      </c>
+      <c r="E52">
+        <v>1.6000000000000007E-3</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0.15093899999999999</v>
+      </c>
+      <c r="H52">
+        <v>1.6000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44764</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.20982780000000001</v>
+      </c>
+      <c r="E53">
+        <v>3.1209999999999995E-2</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0.20982780000000001</v>
+      </c>
+      <c r="H53">
+        <v>3.1209999999999995E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44769</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.23410729999999999</v>
+      </c>
+      <c r="E54">
+        <v>1.6420000000000011E-2</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0.23410729999999999</v>
+      </c>
+      <c r="H54">
+        <v>1.6420000000000011E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D56" s="9"/>
+      <c r="G56" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H56">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D57" s="9"/>
+      <c r="G57" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H57">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D58" s="9"/>
+      <c r="G58" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H58">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D59" s="9"/>
+      <c r="G59" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H59">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D60" s="9"/>
+      <c r="G60" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H60">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D61" s="9"/>
+      <c r="G61" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H61">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B62">
+        <f>2.0906*A62^2 - 0.5608*A62 + 0.0439</f>
+        <v>6.363760000000003E-3</v>
+      </c>
+      <c r="D62" s="9">
+        <f>B62-C62</f>
+        <v>6.363760000000003E-3</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H62">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f>A62+0.01</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63:B133" si="0">2.0906*A63^2 - 0.5608*A63 + 0.0439</f>
+        <v>6.8185000000000121E-3</v>
+      </c>
+      <c r="D63" s="9">
+        <f t="shared" ref="D63:D133" si="1">B63-C63</f>
+        <v>6.8185000000000121E-3</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H63">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J63" s="10">
+        <v>0.1195316</v>
+      </c>
+      <c r="K63">
+        <f>0.126*J63^2+0.255*J63-0.0314</f>
+        <v>8.8082122821856595E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" ref="A64:A133" si="2">A63+0.01</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>7.6913600000000013E-3</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" si="1"/>
+        <v>7.6913600000000013E-3</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H64">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>8.9823400000000053E-3</v>
+      </c>
+      <c r="D65" s="9">
+        <f t="shared" si="1"/>
+        <v>8.9823400000000053E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>1.0691440000000017E-2</v>
+      </c>
+      <c r="D66" s="9">
+        <f t="shared" si="1"/>
+        <v>1.0691440000000017E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>1.2818660000000016E-2</v>
+      </c>
+      <c r="D67" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2818660000000016E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>1.5364000000000023E-2</v>
+      </c>
+      <c r="D68" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5364000000000023E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>1.8327460000000025E-2</v>
+      </c>
+      <c r="D69" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8327460000000025E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>2.1709040000000034E-2</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1709040000000034E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>2.5508740000000037E-2</v>
+      </c>
+      <c r="D71" s="9">
+        <f t="shared" si="1"/>
+        <v>2.5508740000000037E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="0"/>
+        <v>2.9726560000000048E-2</v>
+      </c>
+      <c r="D72" s="9">
+        <f t="shared" si="1"/>
+        <v>2.9726560000000048E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="0"/>
+        <v>3.4362500000000053E-2</v>
+      </c>
+      <c r="D73" s="9">
+        <f t="shared" si="1"/>
+        <v>3.4362500000000053E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="0"/>
+        <v>3.941656000000008E-2</v>
+      </c>
+      <c r="D74" s="9">
+        <f t="shared" si="1"/>
+        <v>3.941656000000008E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="0"/>
+        <v>4.4888740000000101E-2</v>
+      </c>
+      <c r="D75" s="9">
+        <f t="shared" si="1"/>
+        <v>4.4888740000000101E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f>A75+0.001</f>
+        <v>0.27100000000000013</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="0"/>
+        <v>4.545895460000008E-2</v>
+      </c>
+      <c r="D76" s="9">
+        <f t="shared" si="1"/>
+        <v>4.545895460000008E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" ref="A77:A85" si="3">A76+0.001</f>
+        <v>0.27200000000000013</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="0"/>
+        <v>4.6033350400000096E-2</v>
+      </c>
+      <c r="D77" s="9">
+        <f t="shared" si="1"/>
+        <v>4.6033350400000096E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>0.27300000000000013</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="0"/>
+        <v>4.6611927400000065E-2</v>
+      </c>
+      <c r="D78" s="9">
+        <f t="shared" si="1"/>
+        <v>4.6611927400000065E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>0.27400000000000013</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="0"/>
+        <v>4.7194685600000098E-2</v>
+      </c>
+      <c r="D79" s="9">
+        <f t="shared" si="1"/>
+        <v>4.7194685600000098E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>0.27500000000000013</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="0"/>
+        <v>4.7781625000000084E-2</v>
+      </c>
+      <c r="D80" s="9">
+        <f t="shared" si="1"/>
+        <v>4.7781625000000084E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>0.27600000000000013</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="0"/>
+        <v>4.8372745600000079E-2</v>
+      </c>
+      <c r="D81" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8372745600000079E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f>A81+0.0001</f>
+        <v>0.27610000000000012</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="0"/>
+        <v>4.8432087626000049E-2</v>
+      </c>
+      <c r="D82" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8432087626000049E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" ref="A83:A94" si="4">A82+0.0001</f>
+        <v>0.27620000000000011</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="0"/>
+        <v>4.8491471464000076E-2</v>
+      </c>
+      <c r="D83" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8491471464000076E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="4"/>
+        <v>0.2763000000000001</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="0"/>
+        <v>4.8550897114000076E-2</v>
+      </c>
+      <c r="D84" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8550897114000076E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="4"/>
+        <v>0.27640000000000009</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="0"/>
+        <v>4.8610364576000049E-2</v>
+      </c>
+      <c r="D85" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8610364576000049E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="4"/>
+        <v>0.27650000000000008</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="0"/>
+        <v>4.8669873850000024E-2</v>
+      </c>
+      <c r="D86" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8669873850000024E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="4"/>
+        <v>0.27660000000000007</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="0"/>
+        <v>4.8729424936000056E-2</v>
+      </c>
+      <c r="D87" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8729424936000056E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="4"/>
+        <v>0.27670000000000006</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="0"/>
+        <v>4.878901783400006E-2</v>
+      </c>
+      <c r="D88" s="9">
+        <f t="shared" si="1"/>
+        <v>4.878901783400006E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="4"/>
+        <v>0.27680000000000005</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="0"/>
+        <v>4.8848652544000039E-2</v>
+      </c>
+      <c r="D89" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8848652544000039E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f>A89+0.00001</f>
+        <v>0.27681000000000006</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="0"/>
+        <v>4.8854618314660016E-2</v>
+      </c>
+      <c r="D90" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8854618314660016E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f>A90+0.000001</f>
+        <v>0.27681100000000003</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="0"/>
+        <v>4.8855214914722618E-2</v>
+      </c>
+      <c r="D91" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8855214914722618E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" ref="A92:A100" si="5">A91+0.000001</f>
+        <v>0.276812</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="0"/>
+        <v>4.8855811518966376E-2</v>
+      </c>
+      <c r="D92" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8855811518966376E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="5"/>
+        <v>0.27681299999999998</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="0"/>
+        <v>4.8856408127391372E-2</v>
+      </c>
+      <c r="D93" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8856408127391372E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="5"/>
+        <v>0.27681399999999995</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="0"/>
+        <v>4.885700473999758E-2</v>
+      </c>
+      <c r="D94" s="9">
+        <f t="shared" ref="D94" si="6">B94-C94</f>
+        <v>4.885700473999758E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="5"/>
+        <v>0.27681499999999992</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="0"/>
+        <v>4.8857601356784942E-2</v>
+      </c>
+      <c r="D95" s="9">
+        <f t="shared" ref="D95:D113" si="7">B95-C95</f>
+        <v>4.8857601356784942E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="5"/>
+        <v>0.2768159999999999</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="0"/>
+        <v>4.8858197977753544E-2</v>
+      </c>
+      <c r="D96" s="9">
+        <f t="shared" si="7"/>
+        <v>4.8858197977753544E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="5"/>
+        <v>0.27681699999999987</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ref="C63:C126" si="8">(0.1272)*A97^2 + 0.254*A97 - 0.0312</f>
+        <v>4.8858555269400757E-2</v>
+      </c>
+      <c r="D97" s="9">
+        <f t="shared" ref="D97" si="9">B97-C97</f>
+        <v>-4.8858555269400757E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="5"/>
+        <v>0.27681799999999984</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="8"/>
+        <v>4.8858879691772751E-2</v>
+      </c>
+      <c r="D98" s="9">
+        <f t="shared" ref="D98:D103" si="10">B98-C98</f>
+        <v>-4.8858879691772751E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="5"/>
+        <v>0.27681899999999982</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="8"/>
+        <v>4.8859204114399153E-2</v>
+      </c>
+      <c r="D99" s="9">
+        <f t="shared" si="10"/>
+        <v>-4.8859204114399153E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="5"/>
+        <v>0.27681999999999979</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="8"/>
+        <v>4.8859528537279935E-2</v>
+      </c>
+      <c r="D100" s="9">
+        <f t="shared" si="10"/>
+        <v>-4.8859528537279935E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" ref="A98:A103" si="11">A100+0.000001</f>
+        <v>0.27682099999999976</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="8"/>
+        <v>4.8859852960415125E-2</v>
+      </c>
+      <c r="D101" s="9">
+        <f t="shared" si="10"/>
+        <v>-4.8859852960415125E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="11"/>
+        <v>0.27682199999999973</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="8"/>
+        <v>4.8860177383804722E-2</v>
+      </c>
+      <c r="D102" s="9">
+        <f t="shared" si="10"/>
+        <v>-4.8860177383804722E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="11"/>
+        <v>0.27682299999999971</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="8"/>
+        <v>4.8860501807448699E-2</v>
+      </c>
+      <c r="D103" s="9">
+        <f t="shared" si="10"/>
+        <v>-4.8860501807448699E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" ref="A104:A112" si="12">A103+0.000001</f>
+        <v>0.27682399999999968</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="8"/>
+        <v>4.8860826231347097E-2</v>
+      </c>
+      <c r="D104" s="9">
+        <f t="shared" ref="D104:D112" si="13">B104-C104</f>
+        <v>-4.8860826231347097E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f>A104+0.0000001</f>
+        <v>0.27682409999999968</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="8"/>
+        <v>4.886085867375093E-2</v>
+      </c>
+      <c r="D105" s="9">
+        <f t="shared" si="13"/>
+        <v>-4.886085867375093E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" ref="A106:A112" si="14">A105+0.0000001</f>
+        <v>0.27682419999999969</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="8"/>
+        <v>4.8860891116157316E-2</v>
+      </c>
+      <c r="D106" s="9">
+        <f t="shared" ref="D106:D112" si="15">B106-C106</f>
+        <v>-4.8860891116157316E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="14"/>
+        <v>0.27682429999999969</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="8"/>
+        <v>4.8860923558566229E-2</v>
+      </c>
+      <c r="D107" s="9">
+        <f t="shared" si="15"/>
+        <v>-4.8860923558566229E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="14"/>
+        <v>0.27682439999999969</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="8"/>
+        <v>4.8860956000977694E-2</v>
+      </c>
+      <c r="D108" s="9">
+        <f t="shared" si="15"/>
+        <v>-4.8860956000977694E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f>A108+0.0000001</f>
+        <v>0.2768244999999997</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="8"/>
+        <v>4.8860988443391713E-2</v>
+      </c>
+      <c r="D109" s="9">
+        <f t="shared" si="15"/>
+        <v>-4.8860988443391713E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="14"/>
+        <v>0.2768245999999997</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="8"/>
+        <v>4.8861020885808258E-2</v>
+      </c>
+      <c r="D110" s="9">
+        <f t="shared" si="15"/>
+        <v>-4.8861020885808258E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" si="14"/>
+        <v>0.2768246999999997</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="8"/>
+        <v>4.8861053328227357E-2</v>
+      </c>
+      <c r="D111" s="9">
+        <f t="shared" si="15"/>
+        <v>-4.8861053328227357E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="14"/>
+        <v>0.2768247999999997</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="8"/>
+        <v>4.8861085770648995E-2</v>
+      </c>
+      <c r="D112" s="9">
+        <f t="shared" si="15"/>
+        <v>-4.8861085770648995E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f>A96+0.00001</f>
+        <v>0.27682599999999991</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="8"/>
+        <v>4.8861475079907173E-2</v>
+      </c>
+      <c r="D113" s="9">
+        <f t="shared" si="7"/>
+        <v>-4.8861475079907173E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f>A93+0.00005</f>
+        <v>0.27686299999999997</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="8"/>
+        <v>4.8873478961816784E-2</v>
+      </c>
+      <c r="D114" s="9">
+        <f t="shared" si="1"/>
+        <v>-4.8873478961816784E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" ref="A115" si="16">A114+0.00005</f>
+        <v>0.27691299999999996</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="8"/>
+        <v>4.8889700977176785E-2</v>
+      </c>
+      <c r="D115" s="9">
+        <f t="shared" si="1"/>
+        <v>-4.8889700977176785E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f>A88+0.001</f>
+        <v>0.27770000000000006</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="8"/>
+        <v>4.9145119288000021E-2</v>
+      </c>
+      <c r="D116" s="9">
+        <f t="shared" si="1"/>
+        <v>-4.9145119288000021E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f>A116+0.001</f>
+        <v>0.27870000000000006</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="8"/>
+        <v>4.9469893368000013E-2</v>
+      </c>
+      <c r="D117" s="9">
+        <f t="shared" si="1"/>
+        <v>-4.9469893368000013E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" ref="A118:A122" si="17">A117+0.001</f>
+        <v>0.27970000000000006</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="8"/>
+        <v>4.979492184800003E-2</v>
+      </c>
+      <c r="D118" s="9">
+        <f t="shared" si="1"/>
+        <v>-4.979492184800003E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f t="shared" si="17"/>
+        <v>0.28070000000000006</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="8"/>
+        <v>5.012020472800003E-2</v>
+      </c>
+      <c r="D119" s="9">
+        <f t="shared" si="1"/>
+        <v>-5.012020472800003E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="17"/>
+        <v>0.28170000000000006</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="8"/>
+        <v>5.0445742008000012E-2</v>
+      </c>
+      <c r="D120" s="9">
+        <f t="shared" si="1"/>
+        <v>-5.0445742008000012E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f t="shared" si="17"/>
+        <v>0.28270000000000006</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="8"/>
+        <v>5.0771533688000019E-2</v>
+      </c>
+      <c r="D121" s="9">
+        <f t="shared" si="1"/>
+        <v>-5.0771533688000019E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f t="shared" si="17"/>
+        <v>0.28370000000000006</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="8"/>
+        <v>5.1097579768000036E-2</v>
+      </c>
+      <c r="D122" s="9">
+        <f t="shared" si="1"/>
+        <v>-5.1097579768000036E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <f>A87+0.01</f>
+        <v>0.28660000000000008</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="8"/>
+        <v>5.2044552032000028E-2</v>
+      </c>
+      <c r="D123" s="9">
+        <f t="shared" si="1"/>
+        <v>-5.2044552032000028E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <f>A123+0.01</f>
+        <v>0.29660000000000009</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="8"/>
+        <v>5.5326382432000033E-2</v>
+      </c>
+      <c r="D124" s="9">
+        <f t="shared" si="1"/>
+        <v>-5.5326382432000033E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f t="shared" si="2"/>
+        <v>0.30660000000000009</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="8"/>
+        <v>5.863365283200004E-2</v>
+      </c>
+      <c r="D125" s="9">
+        <f t="shared" si="1"/>
+        <v>-5.863365283200004E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f t="shared" si="2"/>
+        <v>0.3166000000000001</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="8"/>
+        <v>6.1966363232000034E-2</v>
+      </c>
+      <c r="D126" s="9">
+        <f t="shared" si="1"/>
+        <v>-6.1966363232000034E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <f t="shared" si="2"/>
+        <v>0.32660000000000011</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ref="C127:C133" si="18">(0.1272)*A127^2 + 0.254*A127 - 0.0312</f>
+        <v>6.5324513632000036E-2</v>
+      </c>
+      <c r="D127" s="9">
+        <f t="shared" si="1"/>
+        <v>-6.5324513632000036E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <f t="shared" si="2"/>
+        <v>0.33660000000000012</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="18"/>
+        <v>6.8708104032000034E-2</v>
+      </c>
+      <c r="D128" s="9">
+        <f t="shared" si="1"/>
+        <v>-6.8708104032000034E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f t="shared" si="2"/>
+        <v>0.34660000000000013</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="18"/>
+        <v>7.2117134432000046E-2</v>
+      </c>
+      <c r="D129" s="9">
+        <f t="shared" si="1"/>
+        <v>-7.2117134432000046E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f t="shared" si="2"/>
+        <v>0.35660000000000014</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="18"/>
+        <v>7.5551604832000047E-2</v>
+      </c>
+      <c r="D130" s="9">
+        <f t="shared" si="1"/>
+        <v>-7.5551604832000047E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f t="shared" si="2"/>
+        <v>0.36660000000000015</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="18"/>
+        <v>7.9011515232000062E-2</v>
+      </c>
+      <c r="D131" s="9">
+        <f t="shared" si="1"/>
+        <v>-7.9011515232000062E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>0.37660000000000016</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="18"/>
+        <v>8.2496865632000066E-2</v>
+      </c>
+      <c r="D132" s="9">
+        <f t="shared" si="1"/>
+        <v>-8.2496865632000066E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>0.38660000000000017</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="18"/>
+        <v>8.6007656032000057E-2</v>
+      </c>
+      <c r="D133" s="9">
+        <f t="shared" si="1"/>
+        <v>-8.6007656032000057E-2</v>
       </c>
     </row>
   </sheetData>
